--- a/Tables/PERMANOVA_bio_spInt_1.xlsx
+++ b/Tables/PERMANOVA_bio_spInt_1.xlsx
@@ -398,7 +398,7 @@
         <v>0.000661542462471505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7484</v>
+        <v>0.7554</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>0.000982691586087769</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7061</v>
+        <v>0.7074</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>0.000128923623271053</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8945</v>
+        <v>0.8939</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>0.000849748466568212</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7178</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>0.00356599397678697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4702</v>
+        <v>0.4756</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.000528796774183622</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7743</v>
+        <v>0.7794</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         <v>0.000753262744555689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7436</v>
+        <v>0.7402</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>0.0139371248267661</v>
       </c>
       <c r="F14" t="n">
-        <v>0.156</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>0.00000167917811929571</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9891</v>
+        <v>0.9882</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.010871573713867</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2153</v>
+        <v>0.2101</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.000651238487611556</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7594</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.0197975649831835</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0885</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.0265087988255299</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0458</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.0145380870441804</v>
       </c>
       <c r="F24" t="n">
-        <v>0.139</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
         <v>0.000297998434895039</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8402</v>
+        <v>0.8397</v>
       </c>
     </row>
     <row r="28">
@@ -868,7 +868,7 @@
         <v>0.000797703502359323</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7345</v>
+        <v>0.7389</v>
       </c>
     </row>
     <row r="29">
@@ -888,7 +888,7 @@
         <v>0.00155715292871872</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6313</v>
+        <v>0.6384</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>0.000113899695877786</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8937</v>
+        <v>0.8928</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.0812962679545597</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0005</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.0000676870230946712</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9204</v>
+        <v>0.9191</v>
       </c>
     </row>
     <row r="35">
@@ -1028,7 +1028,7 @@
         <v>0.00135794570658376</v>
       </c>
       <c r="F37" t="n">
-        <v>0.696</v>
+        <v>0.6966</v>
       </c>
     </row>
     <row r="38">
@@ -1048,7 +1048,7 @@
         <v>0.0327056506250987</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0496</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="39">
@@ -1068,7 +1068,7 @@
         <v>0.00128647487992152</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7337</v>
+        <v>0.7358</v>
       </c>
     </row>
     <row r="40">

--- a/Tables/PERMANOVA_bio_spInt_1.xlsx
+++ b/Tables/PERMANOVA_bio_spInt_1.xlsx
@@ -398,7 +398,7 @@
         <v>0.000661542462471505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7554</v>
+        <v>0.7564</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0624915990055264</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0018</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.000982691586087769</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7074</v>
+        <v>0.6979</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>0.000128923623271053</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8939</v>
+        <v>0.8914</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>0.000849748466568212</v>
       </c>
       <c r="F8" t="n">
-        <v>0.731</v>
+        <v>0.7299</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>0.00356599397678697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4756</v>
+        <v>0.4701</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.000528796774183622</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7794</v>
+        <v>0.7775</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         <v>0.000753262744555689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7402</v>
+        <v>0.7392</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>0.0139371248267661</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1598</v>
+        <v>0.1559</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>0.00000167917811929571</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9882</v>
+        <v>0.9872</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.010871573713867</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2101</v>
+        <v>0.2022</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.000651238487611556</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7577</v>
+        <v>0.7552</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.0197975649831835</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0813</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.0265087988255299</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0469</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.0145380870441804</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1376</v>
+        <v>0.1371</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
         <v>0.000297998434895039</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8397</v>
+        <v>0.8272</v>
       </c>
     </row>
     <row r="28">
@@ -868,7 +868,7 @@
         <v>0.000797703502359323</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7389</v>
+        <v>0.7351</v>
       </c>
     </row>
     <row r="29">
@@ -888,7 +888,7 @@
         <v>0.00155715292871872</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6384</v>
+        <v>0.6332</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>0.000113899695877786</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8928</v>
+        <v>0.8977</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.0812962679545597</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0004</v>
+        <v>0.0006</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.0000676870230946712</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9191</v>
+        <v>0.9203</v>
       </c>
     </row>
     <row r="35">
@@ -1028,7 +1028,7 @@
         <v>0.00135794570658376</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6966</v>
+        <v>0.6905</v>
       </c>
     </row>
     <row r="38">
@@ -1048,7 +1048,7 @@
         <v>0.0327056506250987</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0466</v>
+        <v>0.0524</v>
       </c>
     </row>
     <row r="39">
@@ -1068,7 +1068,7 @@
         <v>0.00128647487992152</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7358</v>
+        <v>0.7377</v>
       </c>
     </row>
     <row r="40">

--- a/Tables/PERMANOVA_bio_spInt_1.xlsx
+++ b/Tables/PERMANOVA_bio_spInt_1.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.21156546283048</v>
+        <v>0.210757114293816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.21156546283048</v>
+        <v>0.210757114293816</v>
       </c>
       <c r="D2" t="n">
-        <v>0.101790535379481</v>
+        <v>0.101347349640299</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000661542462471505</v>
+        <v>0.000658751049003168</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7564</v>
+        <v>0.7554</v>
       </c>
     </row>
     <row r="3">
@@ -406,19 +406,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.9852085340485</v>
+        <v>19.9493093126419</v>
       </c>
       <c r="C3" t="n">
-        <v>19.9852085340485</v>
+        <v>19.9493093126419</v>
       </c>
       <c r="D3" t="n">
-        <v>9.61548756179257</v>
+        <v>9.59307889921189</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0624915990055264</v>
+        <v>0.0623543764139359</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0011</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="4">
@@ -426,19 +426,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.314270983382617</v>
+        <v>0.318790907760633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.314270983382617</v>
+        <v>0.318790907760633</v>
       </c>
       <c r="D4" t="n">
-        <v>0.151205263963073</v>
+        <v>0.153297855207506</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000982691586087769</v>
+        <v>0.000996425888652198</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6979</v>
+        <v>0.6988</v>
       </c>
     </row>
     <row r="5">
@@ -446,14 +446,14 @@
         <v>144</v>
       </c>
       <c r="B5" t="n">
-        <v>299.29527862303</v>
+        <v>299.455531555822</v>
       </c>
       <c r="C5" t="n">
-        <v>2.07843943488215</v>
+        <v>2.07955230247099</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.935864166945914</v>
+        <v>0.935990446648409</v>
       </c>
       <c r="F5"/>
     </row>
@@ -462,7 +462,7 @@
         <v>147</v>
       </c>
       <c r="B6" t="n">
-        <v>319.806323603291</v>
+        <v>319.934388890519</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -476,19 +476,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0151333126638777</v>
+        <v>0.0149852447850418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0151333126638777</v>
+        <v>0.0149852447850418</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0186497586764393</v>
+        <v>0.0184668245087217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000128923623271053</v>
+        <v>0.000127657468861562</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8914</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8">
@@ -496,19 +496,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0997451739561425</v>
+        <v>0.0982469912216245</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0997451739561425</v>
+        <v>0.0982469912216245</v>
       </c>
       <c r="D8" t="n">
-        <v>0.122922420539275</v>
+        <v>0.121073093661486</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000849748466568212</v>
+        <v>0.000836954110695343</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7299</v>
+        <v>0.7316</v>
       </c>
     </row>
     <row r="9">
@@ -516,19 +516,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0.418583502689522</v>
+        <v>0.42166987486296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.418583502689522</v>
+        <v>0.42166987486296</v>
       </c>
       <c r="D9" t="n">
-        <v>0.515847487228083</v>
+        <v>0.519638063402327</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00356599397678697</v>
+        <v>0.00359215412843367</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4701</v>
+        <v>0.4697</v>
       </c>
     </row>
     <row r="10">
@@ -536,14 +536,14 @@
         <v>144</v>
       </c>
       <c r="B10" t="n">
-        <v>116.84853736748</v>
+        <v>116.851451532821</v>
       </c>
       <c r="C10" t="n">
-        <v>0.811448176163054</v>
+        <v>0.811468413422371</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.995455333933374</v>
+        <v>0.995443234292009</v>
       </c>
       <c r="F10"/>
     </row>
@@ -552,7 +552,7 @@
         <v>147</v>
       </c>
       <c r="B11" t="n">
-        <v>117.381999356789</v>
+        <v>117.386353643691</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0263954549719117</v>
+        <v>0.0243295345328576</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0263954549719117</v>
+        <v>0.0243295345328576</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0773235366408247</v>
+        <v>0.0710358119133855</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000528796774183622</v>
+        <v>0.000485902785068253</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7775</v>
+        <v>0.7896</v>
       </c>
     </row>
     <row r="13">
@@ -586,19 +586,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0375999132873572</v>
+        <v>0.0395669751608717</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0375999132873572</v>
+        <v>0.0395669751608717</v>
       </c>
       <c r="D13" t="n">
-        <v>0.110146170083471</v>
+        <v>0.115525112151792</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000753262744555689</v>
+        <v>0.000790220766510316</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7392</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="14">
@@ -606,19 +606,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.69568645037739</v>
+        <v>0.687358196769216</v>
       </c>
       <c r="C14" t="n">
-        <v>0.69568645037739</v>
+        <v>0.687358196769216</v>
       </c>
       <c r="D14" t="n">
-        <v>2.03796209588068</v>
+        <v>2.00690430459653</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0139371248267661</v>
+        <v>0.0137277292213953</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1559</v>
+        <v>0.1604</v>
       </c>
     </row>
     <row r="15">
@@ -626,14 +626,14 @@
         <v>144</v>
       </c>
       <c r="B15" t="n">
-        <v>49.1563847320002</v>
+        <v>49.3195316329076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.341363782861113</v>
+        <v>0.342496747450747</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>0.984780815654495</v>
+        <v>0.984996147227026</v>
       </c>
       <c r="F15"/>
     </row>
@@ -642,7 +642,7 @@
         <v>147</v>
       </c>
       <c r="B16" t="n">
-        <v>49.9160665506369</v>
+        <v>50.0707863393706</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -668,7 +668,7 @@
         <v>0.00000167917811929571</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9872</v>
+        <v>0.9891</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.010871573713867</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2022</v>
+        <v>0.2173</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.000651238487611556</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7552</v>
+        <v>0.7643</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.0197975649831835</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0859</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.0265087988255299</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0453</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.0145380870441804</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1371</v>
+        <v>0.1401</v>
       </c>
     </row>
     <row r="25">
@@ -836,19 +836,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208647793358373</v>
+        <v>0.0245046621802622</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0208647793358373</v>
+        <v>0.0245046621802622</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0430259161358696</v>
+        <v>0.0503732173487164</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000297998434895039</v>
+        <v>0.00034885943435843</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8272</v>
+        <v>0.8262</v>
       </c>
     </row>
     <row r="28">
@@ -856,19 +856,19 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0558523321037379</v>
+        <v>0.0507987323022581</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0558523321037379</v>
+        <v>0.0507987323022581</v>
       </c>
       <c r="D28" t="n">
-        <v>0.115174846491696</v>
+        <v>0.104424846360952</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000797703502359323</v>
+        <v>0.000723193688071543</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7351</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="29">
@@ -876,19 +876,19 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>0.109026251299986</v>
+        <v>0.116374093419246</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109026251299986</v>
+        <v>0.116374093419246</v>
       </c>
       <c r="D29" t="n">
-        <v>0.22482645368716</v>
+        <v>0.239225395495934</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00155715292871872</v>
+        <v>0.00165675413541974</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6332</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="30">
@@ -896,14 +896,14 @@
         <v>144</v>
       </c>
       <c r="B30" t="n">
-        <v>69.8306624052514</v>
+        <v>70.0505455017888</v>
       </c>
       <c r="C30" t="n">
-        <v>0.484935155592024</v>
+        <v>0.4864621215402</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>0.997347145134027</v>
+        <v>0.99727119274215</v>
       </c>
       <c r="F30"/>
     </row>
@@ -912,7 +912,7 @@
         <v>147</v>
       </c>
       <c r="B31" t="n">
-        <v>70.016405767991</v>
+        <v>70.2422229896906</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -926,19 +926,19 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0209358540726632</v>
+        <v>0.0219846656846166</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0209358540726632</v>
+        <v>0.0219846656846166</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0178564624596739</v>
+        <v>0.018768248912626</v>
       </c>
       <c r="E32" t="n">
-        <v>0.000113899695877786</v>
+        <v>0.000119723027914035</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8977</v>
+        <v>0.8901</v>
       </c>
     </row>
     <row r="33">
@@ -946,19 +946,19 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>14.9430320198136</v>
+        <v>14.9161045557755</v>
       </c>
       <c r="C33" t="n">
-        <v>14.9430320198136</v>
+        <v>14.9161045557755</v>
       </c>
       <c r="D33" t="n">
-        <v>12.7451065224951</v>
+        <v>12.7338376268982</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0812962679545597</v>
+        <v>0.0812293999698778</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0006</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="34">
@@ -966,19 +966,19 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0124415225800387</v>
+        <v>0.0132310001462539</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0124415225800387</v>
+        <v>0.0132310001462539</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0106115365592719</v>
+        <v>0.0112952686054099</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0000676870230946712</v>
+        <v>0.0000720527399672477</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9203</v>
+        <v>0.9153</v>
       </c>
     </row>
     <row r="35">
@@ -986,14 +986,14 @@
         <v>144</v>
       </c>
       <c r="B35" t="n">
-        <v>168.833160166628</v>
+        <v>168.678062259451</v>
       </c>
       <c r="C35" t="n">
-        <v>1.17245250115714</v>
+        <v>1.1713754323573</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="n">
-        <v>0.918522145326468</v>
+        <v>0.918578824262241</v>
       </c>
       <c r="F35"/>
     </row>
@@ -1002,7 +1002,7 @@
         <v>147</v>
       </c>
       <c r="B36" t="n">
-        <v>183.809569563094</v>
+        <v>183.629382481057</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1028,7 +1028,7 @@
         <v>0.00135794570658376</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6905</v>
+        <v>0.6821</v>
       </c>
     </row>
     <row r="38">
@@ -1048,7 +1048,7 @@
         <v>0.0327056506250987</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0524</v>
+        <v>0.0495</v>
       </c>
     </row>
     <row r="39">
@@ -1068,7 +1068,7 @@
         <v>0.00128647487992152</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7377</v>
+        <v>0.7337</v>
       </c>
     </row>
     <row r="40">
